--- a/shj-admin-portal-web/src/main/resources/templates/excel/2/applicant-relatives-data.xlsx
+++ b/shj-admin-portal-web/src/main/resources/templates/excel/2/applicant-relatives-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\projects\hajj\code\smart-hajj-admin-portal\shj-admin-portal-web\src\main\resources\templates\excel\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tasks\Hajj Initiative\excel template\excel\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Applicant Relatives Data" sheetId="1" r:id="rId1"/>
@@ -32,14 +32,6 @@
   <si>
     <t>PassportNo
 	رقم الجواز</t>
-  </si>
-  <si>
-    <t>DateOfBirth
-	تاريخ الميلاد</t>
-  </si>
-  <si>
-    <t>DateOfBirthHijri
-	تاريخ الميلاد هجري</t>
   </si>
   <si>
     <t>Relative NIN
@@ -55,11 +47,23 @@
   </si>
   <si>
     <t>Relative DateOfBirth
-	تاريخ الميلاد القريب</t>
+	تاريخ الميلاد
+DD/MM/YYYY</t>
   </si>
   <si>
     <t>Relative DateOfBirthHijri
-	تاريخ الميلاد القريب هجري</t>
+	تاريخ الميلاد هجري
+YYYYMMDD</t>
+  </si>
+  <si>
+    <t>DateOfBirth
+	تاريخ الميلاد
+DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>DateOfBirthHijri
+	تاريخ الميلاد هجري
+YYYYMMDD</t>
   </si>
 </sst>
 </file>
@@ -237,26 +241,24 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </right>
         <top style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </top>
         <bottom style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -270,9 +272,7 @@
         <left style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </left>
-        <right style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="1" tint="0.14999847407452621"/>
         </top>
@@ -537,13 +537,13 @@
   <tableColumns count="9">
     <tableColumn id="2" name="ID Number _x000a__x0009_رقم الهوية الوطنية / الإقامة" dataDxfId="8"/>
     <tableColumn id="3" name="PassportNo_x000a__x0009_رقم الجواز" dataDxfId="7"/>
-    <tableColumn id="4" name="DateOfBirth_x000a__x0009_تاريخ الميلاد" dataDxfId="6"/>
-    <tableColumn id="5" name="DateOfBirthHijri_x000a__x0009_تاريخ الميلاد هجري" dataDxfId="5"/>
+    <tableColumn id="4" name="DateOfBirth_x000a__x0009_تاريخ الميلاد_x000a_DD/MM/YYYY" dataDxfId="6"/>
+    <tableColumn id="5" name="DateOfBirthHijri_x000a__x0009_تاريخ الميلاد هجري_x000a_YYYYMMDD" dataDxfId="5"/>
     <tableColumn id="6" name="Relative NIN_x000a_ _x0009_رقم هوية القريب" dataDxfId="4"/>
     <tableColumn id="7" name="Relative PassportNo_x000a__x0009_رقم الجواز القريب" dataDxfId="3"/>
-    <tableColumn id="1" name="Relative DateOfBirth_x000a__x0009_تاريخ الميلاد القريب" dataDxfId="0"/>
-    <tableColumn id="8" name="Relative DateOfBirthHijri_x000a__x0009_تاريخ الميلاد القريب هجري" dataDxfId="2"/>
-    <tableColumn id="9" name="Relationship_x000a__x0009_العلاقة" dataDxfId="1"/>
+    <tableColumn id="1" name="Relative DateOfBirth_x000a__x0009_تاريخ الميلاد_x000a_DD/MM/YYYY" dataDxfId="1"/>
+    <tableColumn id="8" name="Relative DateOfBirthHijri_x000a__x0009_تاريخ الميلاد هجري_x000a_YYYYMMDD" dataDxfId="0"/>
+    <tableColumn id="9" name="Relationship_x000a__x0009_العلاقة" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -815,44 +815,44 @@
   <dimension ref="B3:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="10" width="24.9296875" customWidth="1"/>
+    <col min="2" max="10" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="3" customFormat="1" ht="60.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" s="3" customFormat="1" ht="60.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -863,7 +863,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -874,7 +874,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -885,7 +885,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -896,7 +896,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -907,7 +907,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -918,7 +918,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -929,7 +929,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -940,7 +940,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -951,7 +951,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -962,7 +962,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -973,7 +973,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -984,7 +984,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -995,7 +995,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1006,7 +1006,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1017,7 +1017,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1028,7 +1028,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1039,7 +1039,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1050,7 +1050,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1061,7 +1061,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1072,7 +1072,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1083,7 +1083,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1094,7 +1094,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1105,7 +1105,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1116,7 +1116,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1127,7 +1127,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1138,7 +1138,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1149,7 +1149,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1160,7 +1160,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1171,7 +1171,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1182,7 +1182,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1257,7 +1257,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91BFB47A-C027-431B-9A07-9D5B448C51A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18E32220-ADBE-4C94-A36C-B6BED3B5DCFE}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/shj-admin-portal-web/src/main/resources/templates/excel/2/applicant-relatives-data.xlsx
+++ b/shj-admin-portal-web/src/main/resources/templates/excel/2/applicant-relatives-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tasks\Hajj Initiative\excel template\excel\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmelsayed\Documents\shaaer\shj-admin-portal-web\src\main\resources\templates\excel\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID Number 
 	رقم الهوية الوطنية / الإقامة</t>
@@ -64,6 +64,10 @@
     <t>DateOfBirthHijri
 	تاريخ الميلاد هجري
 YYYYMMDD</t>
+  </si>
+  <si>
+    <t>PackageCode
+باقة الشركة</t>
   </si>
 </sst>
 </file>
@@ -189,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -207,12 +211,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -259,32 +301,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1" tint="0.14999847407452621"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -532,18 +548,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table8" displayName="Table8" ref="B3:J34" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9" headerRowCellStyle="20% - Accent1">
-  <autoFilter ref="B3:J34"/>
-  <tableColumns count="9">
-    <tableColumn id="2" name="ID Number _x000a__x0009_رقم الهوية الوطنية / الإقامة" dataDxfId="8"/>
-    <tableColumn id="3" name="PassportNo_x000a__x0009_رقم الجواز" dataDxfId="7"/>
-    <tableColumn id="4" name="DateOfBirth_x000a__x0009_تاريخ الميلاد_x000a_DD/MM/YYYY" dataDxfId="6"/>
-    <tableColumn id="5" name="DateOfBirthHijri_x000a__x0009_تاريخ الميلاد هجري_x000a_YYYYMMDD" dataDxfId="5"/>
-    <tableColumn id="6" name="Relative NIN_x000a_ _x0009_رقم هوية القريب" dataDxfId="4"/>
-    <tableColumn id="7" name="Relative PassportNo_x000a__x0009_رقم الجواز القريب" dataDxfId="3"/>
-    <tableColumn id="1" name="Relative DateOfBirth_x000a__x0009_تاريخ الميلاد_x000a_DD/MM/YYYY" dataDxfId="1"/>
-    <tableColumn id="8" name="Relative DateOfBirthHijri_x000a__x0009_تاريخ الميلاد هجري_x000a_YYYYMMDD" dataDxfId="0"/>
-    <tableColumn id="9" name="Relationship_x000a__x0009_العلاقة" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table8" displayName="Table8" ref="B3:K34" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10" headerRowCellStyle="20% - Accent1">
+  <autoFilter ref="B3:K34"/>
+  <tableColumns count="10">
+    <tableColumn id="2" name="ID Number _x000a__x0009_رقم الهوية الوطنية / الإقامة" dataDxfId="9"/>
+    <tableColumn id="3" name="PassportNo_x000a__x0009_رقم الجواز" dataDxfId="8"/>
+    <tableColumn id="4" name="DateOfBirth_x000a__x0009_تاريخ الميلاد_x000a_DD/MM/YYYY" dataDxfId="7"/>
+    <tableColumn id="5" name="DateOfBirthHijri_x000a__x0009_تاريخ الميلاد هجري_x000a_YYYYMMDD" dataDxfId="6"/>
+    <tableColumn id="6" name="Relative NIN_x000a_ _x0009_رقم هوية القريب" dataDxfId="5"/>
+    <tableColumn id="7" name="Relative PassportNo_x000a__x0009_رقم الجواز القريب" dataDxfId="4"/>
+    <tableColumn id="1" name="Relative DateOfBirth_x000a__x0009_تاريخ الميلاد_x000a_DD/MM/YYYY" dataDxfId="3"/>
+    <tableColumn id="8" name="Relative DateOfBirthHijri_x000a__x0009_تاريخ الميلاد هجري_x000a_YYYYMMDD" dataDxfId="2"/>
+    <tableColumn id="9" name="Relationship_x000a__x0009_العلاقة" dataDxfId="1"/>
+    <tableColumn id="10" name="PackageCode_x000a_باقة الشركة" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,18 +829,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J34"/>
+  <dimension ref="B3:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K3" sqref="K3:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="10" width="21.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="3" customFormat="1" ht="60.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" s="3" customFormat="1" ht="60.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,8 +869,11 @@
       <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -862,8 +883,9 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -873,8 +895,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -884,8 +907,9 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -895,8 +919,9 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -906,8 +931,9 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -917,8 +943,9 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -928,8 +955,9 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -939,8 +967,9 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -950,8 +979,9 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -961,8 +991,9 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -972,8 +1003,9 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -983,8 +1015,9 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -994,8 +1027,9 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1005,8 +1039,9 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1016,8 +1051,9 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1027,8 +1063,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1038,8 +1075,9 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1049,8 +1087,9 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1060,8 +1099,9 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1071,8 +1111,9 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1082,8 +1123,9 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1093,8 +1135,9 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1104,8 +1147,9 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1115,8 +1159,9 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1126,8 +1171,9 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1137,8 +1183,9 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1148,8 +1195,9 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1159,8 +1207,9 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1170,8 +1219,9 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1181,8 +1231,9 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1192,6 +1243,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="7"/>
+      <c r="K34" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1207,11 +1259,11 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%CLASSIFICATIONDATETIME%">09:56 11/05/2021</XMLData>
+<XMLData TextToDisplay="RightsWATCHMark">4|ELM-ENG-INT|{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="%USERNAME%">adhaoui</XMLData>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1219,11 +1271,11 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%USERNAME%">adhaoui</XMLData>
+<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="RightsWATCHMark">4|ELM-ENG-INT|{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="%CLASSIFICATIONDATETIME%">09:56 11/05/2021</XMLData>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1233,13 +1285,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9349EA13-7610-4258-857F-0FF2751B88F4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18E32220-ADBE-4C94-A36C-B6BED3B5DCFE}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C51BB3D-3D40-4619-9BBB-B4E318435C37}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF050156-EDFF-4AA7-976B-B4A43E5958B5}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1251,13 +1303,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF050156-EDFF-4AA7-976B-B4A43E5958B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C51BB3D-3D40-4619-9BBB-B4E318435C37}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18E32220-ADBE-4C94-A36C-B6BED3B5DCFE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9349EA13-7610-4258-857F-0FF2751B88F4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>